--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2181.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2181.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.092266285119728</v>
+        <v>1.288370847702026</v>
       </c>
       <c r="B1">
-        <v>1.846841671906122</v>
+        <v>2.316179513931274</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.035246187280236</v>
+        <v>1.377618312835693</v>
       </c>
       <c r="E1">
-        <v>0.9331055137056991</v>
+        <v>0.8362594842910767</v>
       </c>
     </row>
   </sheetData>
